--- a/FM_sem_3_HW.xlsx
+++ b/FM_sem_3_HW.xlsx
@@ -18,8 +18,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="36"/>
+            <color indexed="10"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>!!!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Финансовая математика (семинары)</t>
   </si>
@@ -162,10 +187,16 @@
     <t xml:space="preserve">Цена ресурса, $ </t>
   </si>
   <si>
-    <t>Стиву перезвонить</t>
-  </si>
-  <si>
-    <t>Инвойсы для СЕО</t>
+    <t>Линейная взаимосвязь достаточно сильная</t>
+  </si>
+  <si>
+    <t>Модель описывает фактические данные</t>
+  </si>
+  <si>
+    <t>a и b коэф.</t>
+  </si>
+  <si>
+    <t>Прогноз - 13 мес.</t>
   </si>
 </sst>
 </file>
@@ -173,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +250,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color indexed="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -372,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -380,9 +419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -407,11 +443,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -437,15 +514,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -455,13 +523,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -470,27 +544,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -508,6 +581,981 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Цена ресурса, $ </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$38:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>16.733602605159945</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-36B5-49BC-B28F-0EA33C024B6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="358138576"/>
+        <c:axId val="358138904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="358138576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="175"/>
+          <c:min val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358138904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="358138904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="12"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358138576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>253602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>321468</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,11 +1820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="69.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -785,1077 +1833,1124 @@
     <col min="2" max="2" width="8.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="35"/>
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>36</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="11">
         <f>A5/C5</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.15</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="7"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>36</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="11">
         <f t="shared" ref="D6:D10" si="0">A6/C6</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.1</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>36</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.05</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="24">
+      <c r="F7" s="3"/>
+      <c r="G7" s="13">
         <f>SUMPRODUCT(D5:D10,E5:E10)</f>
         <v>2.777777777777777E-3</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="17"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>36</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>0.63888888888888884</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>36</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>-0.05</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>C5-SUM(A5:A9)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>36</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>-0.1</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="38"/>
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>6</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>7</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="7"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.05</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>-0.02</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.12</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>-0.04</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0.11</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.09</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="7"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>100000</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4">
         <f>1+B14</f>
         <v>1.05</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" ref="C16:H16" si="1">1+C14</f>
         <v>0.98</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>1.07</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <f t="shared" si="1"/>
         <v>1.0900000000000001</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="7"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="28">
+      <c r="A17" s="5"/>
+      <c r="B17" s="14">
         <f>GEOMEAN(B16:H16)-1</f>
         <v>5.2667285863485791E-2</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="7"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="29">
+      <c r="A18" s="7"/>
+      <c r="B18" s="26">
         <f>FV(B17,5,0,-B15)</f>
         <v>129257.46433998668</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="11"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="38"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="29">
+      <c r="A21" s="7"/>
+      <c r="B21" s="26">
         <f>B17/STDEVA(B14:H14)</f>
         <v>0.84386686371526343</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="11"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="10"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="38"/>
     </row>
     <row r="24" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="7"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="5">
+      <c r="B25" s="45"/>
+      <c r="C25" s="4">
         <v>0.3</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>0.01</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="7"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="5">
+      <c r="B26" s="45"/>
+      <c r="C26" s="4">
         <v>0.5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>0.03</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="7"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="5">
+      <c r="B27" s="45"/>
+      <c r="C27" s="4">
         <v>0.2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>0.1</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="7"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="28">
+      <c r="B28" s="45"/>
+      <c r="C28" s="14">
+        <f>C25</f>
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="14">
+        <f>SUMPRODUCT(C25:C27,D25:D27)</f>
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="14">
         <f>D25</f>
         <v>0.01</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="28">
-        <f>SUMPRODUCT(C25:C27,D25:D27)</f>
-        <v>3.8000000000000006E-2</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="28">
-        <f>D25</f>
-        <v>0.01</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="7"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="7"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37">
+      <c r="B32" s="52"/>
+      <c r="C32" s="39">
         <f>C30*C28/C29</f>
-        <v>2.6315789473684206E-3</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="11"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="10"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
     </row>
     <row r="35" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="48"/>
     </row>
     <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="3">
+      <c r="B36" s="42"/>
+      <c r="C36" s="16">
         <v>1</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="16">
         <v>2</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="16">
         <v>3</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="16">
         <v>4</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="16">
         <v>5</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="16">
         <v>6</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="16">
         <v>7</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="16">
         <v>8</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="16">
         <v>9</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="16">
         <v>10</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="16">
         <v>11</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="16">
         <v>12</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="16">
         <v>13</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="17"/>
     </row>
     <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40">
+      <c r="B37" s="42"/>
+      <c r="C37" s="18">
         <v>12.1</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="18">
         <v>15.2</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="18">
         <v>15.3</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="18">
         <v>15.7</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="18">
         <v>15.2</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="18">
         <v>16.100000000000001</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="18">
         <v>16.5</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="18">
         <v>17.100000000000001</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="18">
         <v>17.2</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="18">
         <v>17</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="18">
         <v>16.8</v>
       </c>
-      <c r="N37" s="40">
+      <c r="N37" s="18">
         <v>16.899999999999999</v>
       </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="O37" s="19">
+        <f>C42</f>
+        <v>16.733602605159945</v>
+      </c>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="17"/>
     </row>
     <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40">
+      <c r="B38" s="42"/>
+      <c r="C38" s="18">
         <v>115</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="18">
         <v>119</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="18">
         <v>121</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="18">
         <v>130</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="18">
         <v>131</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="18">
         <v>150</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="18">
         <v>155</v>
       </c>
-      <c r="J38" s="40">
+      <c r="J38" s="18">
         <v>172</v>
       </c>
-      <c r="K38" s="40">
+      <c r="K38" s="18">
         <v>174</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="18">
         <v>168</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M38" s="18">
         <v>161</v>
       </c>
-      <c r="N38" s="40">
+      <c r="N38" s="18">
         <v>159</v>
       </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="17"/>
     </row>
     <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="16">
+        <f>CORREL(C37:N37,C38:N38)</f>
+        <v>0.84745070179502613</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="17"/>
+    </row>
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23">
+        <f>C39*C39</f>
+        <v>0.71817269197288225</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-    </row>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="17"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="16">
+        <f t="array" ref="C41:D41">LINEST(D37:N37,C38:M38)</f>
+        <v>3.3134827821956758E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>11.465164981468821</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="17"/>
+    </row>
+    <row r="42" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="50"/>
+      <c r="C42" s="26">
+        <f>C41*N38+D41</f>
+        <v>16.733602605159945</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="25"/>
+    </row>
+    <row r="43" spans="1:18" ht="69.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:R34"/>
+    <mergeCell ref="A35:R35"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="H7:R7"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="A20:R20"/>
+    <mergeCell ref="A23:R23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="A23:R23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="H7:R7"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A34:R34"/>
-    <mergeCell ref="A35:R35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>